--- a/input_data/transfers/transfers_unsh.xlsx
+++ b/input_data/transfers/transfers_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_24/transfers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_31/transfers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6E59E8-C8D5-2B4C-9E0D-A40ABE100250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857B7F25-7D44-DD45-9B3D-708814318EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>Отбор:</t>
   </si>
@@ -56,193 +56,187 @@
     <t>Трансфер</t>
   </si>
   <si>
+    <t>47105V2 Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Ankylos) / (отв. Megagen/Neobiotech/Xive) / (отв. Nobel) / (отв. Osstem) / (отв. Straum</t>
+  </si>
+  <si>
     <t>47105 Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Ankylos) / (отв. Megagen/Neobiotech/Xive) / (отв. Nobel) / (отв. Osstem) / (отв.Dentium/M</t>
   </si>
   <si>
+    <t>37031 Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.2</t>
+  </si>
+  <si>
     <t>37124 Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=11, слепочный, для открытой ложки с позиционером V.1</t>
   </si>
   <si>
+    <t>47105V2MOопт Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Megagen/Neobiotech/Xive) / (отв. Osstem) D=4.8 L=10 для открытой ложки V.2 / ВКЛ.</t>
+  </si>
+  <si>
     <t>47033 Трансфер LM (копия оригинала) Implantium Multi-Unit 4.5 D=4.5 L=9, слепочный, для открытой ложки без позиционера (арт. SPU45BL) V.1</t>
   </si>
   <si>
-    <t>37031 Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.2</t>
+    <t>37031 Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.1</t>
+  </si>
+  <si>
+    <t>37030уп Трансфер LM (копия оригинала) Implantium D=4.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU4515HL) V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>37000 Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=12, слепочный, для открытой ложки с позиционером (арт. AANIPH4012T) V.1</t>
+  </si>
+  <si>
+    <t>37030 Трансфер LM (копия оригинала) Implantium D=4.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU4515HL) V.1</t>
+  </si>
+  <si>
+    <t>370311опт Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.</t>
+  </si>
+  <si>
+    <t>37032опт Трансфер LM (копия оригинала) MegaGen AnyOne D=4 L=12, слепочный, для открытой ложки с позиционером (арт. IP4012HT) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.</t>
   </si>
   <si>
     <t>37126 Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=4 L=11, слепочный, для открытой ложки с позиционером V.1</t>
   </si>
   <si>
-    <t>37031 Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.1</t>
-  </si>
-  <si>
-    <t>370311опт Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.</t>
-  </si>
-  <si>
-    <t>37000 Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=12, слепочный, для открытой ложки с позиционером (арт. AANIPH4012T) V.1</t>
-  </si>
-  <si>
-    <t>37030 Трансфер LM (копия оригинала) Implantium D=4.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU4515HL) V.1</t>
-  </si>
-  <si>
-    <t>37011опт Трансфер LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=14 для закрытой ложки с позиционером (арт. GSTIS4014) V.1 / ВКЛ. 1 В</t>
+    <t>47105V2Dопт Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв.Dentium/Mis/Astra/Adin RS) D=4.8 L=10 для открытой ложки V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ</t>
+  </si>
+  <si>
+    <t>47077 Трансфер LM (копия оригинала) Implantium D=5.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU5515HL) V.1</t>
+  </si>
+  <si>
+    <t>47021опт Трансфер LM (копия оригинала) MegaGen AnyOne D=4 L=16 для открытой ложки с позиционером (арт. IP4016HT) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37000уп Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=12 для открытой ложки с позиционером (арт. AANIPH4012T) V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>37135 Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=11, слепочный, для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>47047опт Трансфер LM (копия оригинала) Xive 4.5 D=4.5 L=3 для открытой ложки с позиционером (арт. 45-1655) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>47032 Трансфер LM (копия оригинала) Implantium Multi-Unit 5.5 D=5.5 L=9, слепочный, для открытой ложки без позиционера (арт. SPU55BL) V.1</t>
+  </si>
+  <si>
+    <t>37130 Трансфер LM (собств. разр.) Nobel Active NP (3.5) D=5 L=14, слепочный, для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>47046опт Трансфер LM (копия оригинала) Xive 3.4 D=3.4 L=12.9 для открытой ложки с позиционером (арт. 45-1635) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37001 Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=16, слепочный, для открытой ложки с позиционером (арт. AANIPH4016) V.1</t>
+  </si>
+  <si>
+    <t>37074 Трансфер LM (собств. разр.) Mis SP (3.75/4.2) D=5 L=11, слепочный, для открытой ложки с позиционером V.2</t>
+  </si>
+  <si>
+    <t>47020опт Трансфер LM (копия оригинала) MegaGen AnyOne D=5.5 L=12 для открытой ложки с позиционером (арт. IP5512HT) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37001опт Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=16, слепочный, для открытой ложки с позиционером (арт. AANIPH4016) V.1 / ВКЛ. 1 ВИНТ, ИМ</t>
+  </si>
+  <si>
+    <t>47019опт Трансфер LM (копия оригинала) MegaGen AnyOne D=5.5 L=7 для открытой ложки с позиционером (арт. IP5507HT) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>37000опт Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=12, слепочный, для открытой ложки с позиционером (арт. AANIPH4012T) V.1 / ВКЛ. 1 ВИНТ, И</t>
   </si>
   <si>
-    <t>47077 Трансфер LM (копия оригинала) Implantium D=5.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU5515HL) V.1</t>
-  </si>
-  <si>
-    <t>37135 Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=11, слепочный, для открытой ложки с позиционером V.1</t>
-  </si>
-  <si>
-    <t>37000уп Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=12 для открытой ложки с позиционером (арт. AANIPH4012T) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>37030уп Трансфер LM (копия оригинала) Implantium D=4.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU4515HL) V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>47032 Трансфер LM (копия оригинала) Implantium Multi-Unit 5.5 D=5.5 L=9, слепочный, для открытой ложки без позиционера (арт. SPU55BL) V.1</t>
-  </si>
-  <si>
-    <t>37130 Трансфер LM (собств. разр.) Nobel Active NP (3.5) D=5 L=14, слепочный, для открытой ложки с позиционером V.1</t>
-  </si>
-  <si>
-    <t>37001 Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=16, слепочный, для открытой ложки с позиционером (арт. AANIPH4016) V.1</t>
-  </si>
-  <si>
-    <t>37030опт Трансфер LM (копия оригинала) Implantium D=4.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU4515HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.Р</t>
-  </si>
-  <si>
-    <t>37074 Трансфер LM (собств. разр.) Mis SP (3.75/4.2) D=5 L=11, слепочный, для открытой ложки с позиционером V.2</t>
-  </si>
-  <si>
-    <t>37130опт Трансфер LM (собств. разр.) Nobel Active NP (3.5) D=5 L=14, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>37032опт Трансфер LM (копия оригинала) MegaGen AnyOne D=4 L=12, слепочный, для открытой ложки с позиционером (арт. IP4012HT) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.</t>
-  </si>
-  <si>
-    <t>47020опт Трансфер LM (копия оригинала) MegaGen AnyOne D=5.5 L=12 для открытой ложки с позиционером (арт. IP5512HT) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>37028 Трансфер LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. GSPIS4511) V.1</t>
+  </si>
+  <si>
+    <t>47034опт Трансфер LM (копия оригинала) Implantium D=4 L=11 для закрытой ложки с позиционером (арт. DTF4011HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37131 Трансфер LM (собств. разр.) Nobel Active RP (4.5) D=5 L=14, слепочный, для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>47035опт Трансфер LM (копия оригинала) Implantium D=4.5 L=11 для закрытой ложки с позиционером (арт. DTF4511HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37024опт Трансфер LM (копия оригинала) Astra Tech 3.5/4.0 L=19, слепочный, для открытой ложки с позиционером (арт. 24948) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/</t>
   </si>
   <si>
     <t>37132 Трансфер LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.75 L=11 для открытой ложки с позиционером V.1</t>
   </si>
   <si>
+    <t>47095опт Трансфер LM (копия оригинала) Astra Tech 3.5/4.0 D=3.5 L=13.5 для закрытой ложки с позиционером (арт. 24960) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>47105V2Dуп Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв.Dentium/Mis/Astra/Adin RS) D=4.8 L=10 для открытой ложки V.2 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>47040опт Трансфер LM (копия оригинала) Implantium D=5.5 L=15 для закрытой ложки с позиционером (арт. DTF5515HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37023 Трансфер LM (копия оригинала) Nobel Replace Select 4.3 D=4.3 L=9, слепочный, для открытой ложки с позиционером (арт. 33539) V.1</t>
+  </si>
+  <si>
+    <t>37024 Трансфер LM (копия оригинала) Astra Tech 3.5/4.0 D=4.6 L=19, слепочный, для открытой ложки с позиционером (арт. 24948) V.1</t>
+  </si>
+  <si>
+    <t>47038опт Трансфер LM (копия оригинала) Implantium D=4 L=15 для закрытой ложки с позиционером (арт. DTF4015HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37033 Трансфер LM (копия оригинала) Ankylos X D=7 L=19.5, слепочный, для открытой ложки с позиционером (арт. 3104 7042) V.2</t>
+  </si>
+  <si>
     <t>370721опт Трансфер LM (копия оригинала) Nobel Conical Connection RP (4.3) D=5 L=14 для открытой ложки с позиционером (арт. 36264) V.1 / ВКЛ. 1 ВИНТ, И</t>
   </si>
   <si>
-    <t>47019опт Трансфер LM (копия оригинала) MegaGen AnyOne D=5.5 L=7 для открытой ложки с позиционером (арт. IP5507HT) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>47053опт Трансфер LM (копия оригинала) Implantium D=4 L=11 для открытой ложки с позиционером (арт. DPU4011HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>37088 Трансфер LM (копия оригинала) Mis C1 (Conical) NP (3.3) D=4 L=13.2 для открытой ложки с позиционером (арт. CN-I0330) V.1</t>
-  </si>
-  <si>
-    <t>37001опт Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=16, слепочный, для открытой ложки с позиционером (арт. AANIPH4016) V.1 / ВКЛ. 1 ВИНТ, ИМ</t>
-  </si>
-  <si>
-    <t>37028 Трансфер LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. GSPIS4511) V.1</t>
-  </si>
-  <si>
-    <t>47105Dопт Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв.Dentium/Mis/Astra/Adin RS) D=4.8 L=10 для открытой ложки V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/О</t>
-  </si>
-  <si>
-    <t>37131 Трансфер LM (собств. разр.) Nobel Active RP (4.5) D=5 L=14, слепочный, для открытой ложки с позиционером V.1</t>
-  </si>
-  <si>
-    <t>37122опт Трансфер LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 L=14 для закрытой ложки с позиционером (арт. GSTIS5014) V.1 / ВКЛ. 1 В</t>
-  </si>
-  <si>
-    <t>47104V2Aопт Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Ankylos) D=4.8 L=6.5 для закрытой ложки V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>37023 Трансфер LM (копия оригинала) Nobel Replace Select 4.3 D=4.3 L=9, слепочный, для открытой ложки с позиционером (арт. 33539) V.1</t>
-  </si>
-  <si>
-    <t>47105V2Dуп Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв.Dentium/Mis/Astra/Adin RS) D=4.8 L=10 для открытой ложки V.2 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>47105V2 Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Ankylos) / (отв. Megagen/Neobiotech/Xive) / (отв. Nobel) / (отв. Osstem) / (отв. Straum</t>
-  </si>
-  <si>
-    <t>37024 Трансфер LM (копия оригинала) Astra Tech 3.5/4.0 D=4.6 L=19, слепочный, для открытой ложки с позиционером (арт. 24948) V.1</t>
-  </si>
-  <si>
-    <t>47105V2Dопт Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв.Dentium/Mis/Astra/Adin RS) D=4.8 L=10 для открытой ложки V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ</t>
+    <t>47036 Трансфер LM (копия оригинала) Implantium D=5.5 L=11 для закрытой ложки с позиционером (арт. DTF5511HL) V.1</t>
+  </si>
+  <si>
+    <t>47078 Трансфер LM (копия оригинала) Implantium D=6.5 L=15 для открытой ложки с позиционером (арт. DPU6515HL) V.1</t>
+  </si>
+  <si>
+    <t>37075 Трансфер LM (копия оригинала) ICX Medentis D=4.5 L=4, слепочный, для открытой ложки с позиционером (арт. C-005-030001) V.1</t>
+  </si>
+  <si>
+    <t>37136опт Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=15 для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>47035 Трансфер LM (копия оригинала) Implantium D=4.5 L=11 для закрытой ложки с позиционером (арт. DTF4511HL) V.1</t>
+  </si>
+  <si>
+    <t>37012 Трансфер LM (копия оригинала) Ankylos X D=7 L=14.5, слепочный, для открытой ложки с позиционером (арт. 3104 7040) V.2</t>
+  </si>
+  <si>
+    <t>37127опт Трансфер LM (собств. разр.) Ankylos X D=4.5 L=14, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37126уп Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=4 L=11, слепочный, для открытой ложки с позиционером V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>47076уп Трансфер LM (копия оригинала) Implantium D=4 L=15 для открытой ложки с позиционером (арт. DPU4015HL) V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>37128опт Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=5 L=15, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37128 Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=5 L=15, слепочный, для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>37023уп Трансфер LM (копия оригинала) Nobel Replace Select 4.3 D=4.3 L=9, слепочный, для открытой ложки с позиционером (арт. 33539) V.1 / 1 ВИНТ, В БЛ</t>
+  </si>
+  <si>
+    <t>47053уп Трансфер LM (копия оригинала) Implantium D=4 L=11 для открытой ложки с позиционером (арт. DPU4011HL) V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>37141опт Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=6 L=15 для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37072 Трансфер LM (копия оригинала) Nobel Conical Connection RP (4.3) D=5 L=14 для открытой ложки с позиционером (арт. 36264) V.1</t>
   </si>
   <si>
     <t>47022 Трансфер LM (копия оригинала) MegaGen AnyOne D=4 L=12 для закрытой ложки с позиционером (арт. IT4012HHT) V.1</t>
   </si>
   <si>
-    <t>47033опт Трансфер LM (копия оригинала) Implantium Multi-Unit 4.5 D=4.5 L=9, слепочный, для открытой ложки без позиционера (арт. SPU45BL) V.1 / ВКЛ. 1</t>
-  </si>
-  <si>
-    <t>37124опт Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=11, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ,</t>
-  </si>
-  <si>
-    <t>37127опт Трансфер LM (собств. разр.) Ankylos X D=4.5 L=14, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>37033 Трансфер LM (копия оригинала) Ankylos X D=7 L=19.5, слепочный, для открытой ложки с позиционером (арт. 3104 7042) V.2</t>
+    <t>37006уп Трансфер LM (копия оригинала) Alpha Bio Internal L=14, слепочный, для закрытой ложки с позиционером (арт. HLT 5060) V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>37125 Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=15, слепочный, для открытой ложки с позиционером V.1</t>
   </si>
   <si>
     <t>37142 Трансфер LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=6 L=30 для открытой ложки с позиционером (арт. 025.4205) V.1</t>
-  </si>
-  <si>
-    <t>37075 Трансфер LM (копия оригинала) ICX Medentis D=4.5 L=4, слепочный, для открытой ложки с позиционером (арт. C-005-030001) V.1</t>
-  </si>
-  <si>
-    <t>47035 Трансфер LM (копия оригинала) Implantium D=4.5 L=11 для закрытой ложки с позиционером (арт. DTF4511HL) V.1</t>
-  </si>
-  <si>
-    <t>37012 Трансфер LM (копия оригинала) Ankylos X D=7 L=14.5, слепочный, для открытой ложки с позиционером (арт. 3104 7040) V.2</t>
-  </si>
-  <si>
-    <t>47036 Трансфер LM (копия оригинала) Implantium D=5.5 L=11 для закрытой ложки с позиционером (арт. DTF5511HL) V.1</t>
-  </si>
-  <si>
-    <t>47078 Трансфер LM (копия оригинала) Implantium D=6.5 L=15 для открытой ложки с позиционером (арт. DPU6515HL) V.1</t>
-  </si>
-  <si>
-    <t>37050опт Трансфер LM (копия оригинала) Osstem Implant Mini (3.5) D=4 L=11 для закрытой ложки с позиционером (арт. GSTIM4011) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.</t>
-  </si>
-  <si>
-    <t>37079опт Трансфер LM (копия оригинала) Implantium D=6.5 L=11 для открытой ложки с позиционером (арт. DPU6511HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>47076уп Трансфер LM (копия оригинала) Implantium D=4 L=15 для открытой ложки с позиционером (арт. DPU4015HL) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>37077 Трансфер LM (копия оригинала) Straumann Bone Level NC (3.3) D=5.5 L=30 для открытой ложки с позиционером (арт. 025.2205) V.1</t>
-  </si>
-  <si>
-    <t>47076опт Трансфер LM (копия оригинала) Implantium D=4 L=15 для открытой ложки с позиционером (арт. DPU4015HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>47053уп Трансфер LM (копия оригинала) Implantium D=4 L=11 для открытой ложки с позиционером (арт. DPU4011HL) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>37128 Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=5 L=15, слепочный, для открытой ложки с позиционером V.1</t>
-  </si>
-  <si>
-    <t>37023уп Трансфер LM (копия оригинала) Nobel Replace Select 4.3 D=4.3 L=9, слепочный, для открытой ложки с позиционером (арт. 33539) V.1 / 1 ВИНТ, В БЛ</t>
-  </si>
-  <si>
-    <t>37125 Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=15, слепочный, для открытой ложки с позиционером V.1</t>
-  </si>
-  <si>
-    <t>37032 Трансфер LM (копия оригинала) MegaGen AnyOne D=4 L=12, слепочный, для открытой ложки с позиционером (арт. IP4012HT) V.1</t>
-  </si>
-  <si>
-    <t>37006уп Трансфер LM (копия оригинала) Alpha Bio Internal L=14, слепочный, для закрытой ложки с позиционером (арт. HLT 5060) V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>37072 Трансфер LM (копия оригинала) Nobel Conical Connection RP (4.3) D=5 L=14 для открытой ложки с позиционером (арт. 36264) V.1</t>
-  </si>
-  <si>
-    <t>37125опт Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=15, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ,</t>
   </si>
 </sst>
 </file>
@@ -720,7 +714,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -793,7 +787,7 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15">
-        <v>1008</v>
+        <v>1090</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4">
@@ -801,7 +795,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>468</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -811,13 +805,13 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -827,13 +821,13 @@
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="6">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -843,13 +837,15 @@
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="7"/>
+      <c r="F9" s="6">
+        <v>50</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="6">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -859,15 +855,13 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="6">
-        <v>50</v>
-      </c>
+      <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="6">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -877,13 +871,13 @@
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -893,13 +887,13 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -909,13 +903,13 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -925,15 +919,13 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17">
-        <v>317</v>
+        <v>19</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="6">
-        <v>300</v>
-      </c>
+      <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="6">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -943,15 +935,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17">
-        <v>66</v>
+        <v>317</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="6">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -961,13 +953,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="6">
+        <v>50</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -977,13 +971,13 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -993,13 +987,13 @@
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="6">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1009,29 +1003,29 @@
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="33" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1041,13 +1035,13 @@
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1057,13 +1051,13 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1073,13 +1067,13 @@
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1089,13 +1083,13 @@
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1105,13 +1099,13 @@
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1121,13 +1115,13 @@
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1137,13 +1131,13 @@
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1153,13 +1147,13 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1169,13 +1163,13 @@
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1185,13 +1179,13 @@
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1265,13 +1259,15 @@
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E35" s="17"/>
-      <c r="F35" s="7"/>
+      <c r="F35" s="6">
+        <v>5</v>
+      </c>
       <c r="G35" s="7"/>
       <c r="H35" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1281,18 +1277,16 @@
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E36" s="17"/>
-      <c r="F36" s="6">
-        <v>5</v>
-      </c>
+      <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="33" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
         <v>40</v>
       </c>
@@ -1331,13 +1325,13 @@
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1347,13 +1341,13 @@
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1411,28 +1405,28 @@
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="17">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="E44" s="17"/>
-      <c r="F44" s="6">
-        <v>135</v>
-      </c>
+      <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="33" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="E45" s="17"/>
-      <c r="F45" s="7"/>
+      <c r="F45" s="6">
+        <v>135</v>
+      </c>
       <c r="G45" s="7"/>
       <c r="H45" s="6">
         <v>4</v>
@@ -1461,13 +1455,13 @@
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
       <c r="D47" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1605,13 +1599,13 @@
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
       <c r="D56" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1717,13 +1711,13 @@
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" s="17"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1733,13 +1727,13 @@
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" s="17"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1790,64 +1784,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="17">
-        <v>1</v>
-      </c>
-      <c r="E68" s="17"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="17">
-        <v>1</v>
-      </c>
-      <c r="E69" s="17"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="13" t="s">
+    <row r="68" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="18">
-        <v>1008</v>
-      </c>
-      <c r="E70" s="18"/>
-      <c r="F70" s="8">
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="18">
+        <v>1090</v>
+      </c>
+      <c r="E68" s="18"/>
+      <c r="F68" s="8">
         <v>540</v>
       </c>
-      <c r="G70" s="9"/>
-      <c r="H70" s="8">
-        <v>468</v>
+      <c r="G68" s="9"/>
+      <c r="H68" s="8">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="135">
+  <mergeCells count="131">
     <mergeCell ref="A68:C68"/>
     <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="D70:E70"/>
     <mergeCell ref="A63:C63"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="A64:C64"/>

--- a/input_data/transfers/transfers_unsh.xlsx
+++ b/input_data/transfers/transfers_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_31/transfers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_07/transfers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857B7F25-7D44-DD45-9B3D-708814318EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED0AA83-1E3E-714A-98EE-5760795C9A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>Отбор:</t>
   </si>
@@ -56,187 +56,220 @@
     <t>Трансфер</t>
   </si>
   <si>
-    <t>47105V2 Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Ankylos) / (отв. Megagen/Neobiotech/Xive) / (отв. Nobel) / (отв. Osstem) / (отв. Straum</t>
-  </si>
-  <si>
     <t>47105 Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Ankylos) / (отв. Megagen/Neobiotech/Xive) / (отв. Nobel) / (отв. Osstem) / (отв.Dentium/M</t>
   </si>
   <si>
+    <t>37124 Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=11, слепочный, для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>47033 Трансфер LM (копия оригинала) Implantium Multi-Unit 4.5 D=4.5 L=9, слепочный, для открытой ложки без позиционера (арт. SPU45BL) V.1</t>
+  </si>
+  <si>
     <t>37031 Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.2</t>
   </si>
   <si>
-    <t>37124 Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=11, слепочный, для открытой ложки с позиционером V.1</t>
+    <t>47076опт Трансфер LM (копия оригинала) Implantium D=4 L=15 для открытой ложки с позиционером (арт. DPU4015HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37031 Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.1</t>
+  </si>
+  <si>
+    <t>47105V2Dуп Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв.Dentium/Mis/MisC1/Astra/Adin RS) D=4.8 L=10 для открытой ложки V.2 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>37000 Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=12, слепочный, для открытой ложки с позиционером (арт. AANIPH4012T) V.1</t>
+  </si>
+  <si>
+    <t>370311опт Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.</t>
+  </si>
+  <si>
+    <t>37030 Трансфер LM (копия оригинала) Implantium D=4.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU4515HL) V.1</t>
+  </si>
+  <si>
+    <t>47105V2MOуп Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Megagen/Neobiotech/Xive) / (отв. Osstem) D=4.8 L=10 для открытой ложки V.2 / 1 ВИНТ</t>
+  </si>
+  <si>
+    <t>37126 Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=4 L=11, слепочный, для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>47105V2Dопт Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв.Dentium/Mis/MisC1/Astra/Adin RS) D=4.8 L=10 для открытой ложки V.2 / ВКЛ. 1 ВИНТ, ИМ</t>
+  </si>
+  <si>
+    <t>47077 Трансфер LM (копия оригинала) Implantium D=5.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU5515HL) V.1</t>
+  </si>
+  <si>
+    <t>47034опт Трансфер LM (копия оригинала) Implantium D=4 L=11 для закрытой ложки с позиционером (арт. DTF4011HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>47105V2 Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit D=4.8 L=10 для открытой ложки V.2</t>
+  </si>
+  <si>
+    <t>37030уп Трансфер LM (копия оригинала) Implantium D=4.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU4515HL) V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>37000уп Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=12 для открытой ложки с позиционером (арт. AANIPH4012T) V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>37135 Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=11, слепочный, для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>37030опт Трансфер LM (копия оригинала) Implantium D=4.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU4515HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.Р</t>
+  </si>
+  <si>
+    <t>37021опт Трансфер LM (копия оригинала) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) D=3.6 L=14 для открытой ложки с позиционером (арт. 362</t>
+  </si>
+  <si>
+    <t>47032 Трансфер LM (копия оригинала) Implantium Multi-Unit 5.5 D=5.5 L=9, слепочный, для открытой ложки без позиционера (арт. SPU55BL) V.1</t>
+  </si>
+  <si>
+    <t>47047опт Трансфер LM (копия оригинала) Xive 4.5 D=4.5 L=3 для открытой ложки с позиционером (арт. 45-1655) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37001 Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=16, слепочный, для открытой ложки с позиционером (арт. AANIPH4016) V.1</t>
+  </si>
+  <si>
+    <t>37074 Трансфер LM (собств. разр.) Mis SP (3.75/4.2) D=5 L=11, слепочный, для открытой ложки с позиционером V.2</t>
+  </si>
+  <si>
+    <t>37130 Трансфер LM (собств. разр.) Nobel Active NP (3.5) D=5 L=14, слепочный, для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>47046опт Трансфер LM (копия оригинала) Xive 3.4 D=3.4 L=12.9 для открытой ложки с позиционером (арт. 45-1635) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37000опт Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=12, слепочный, для открытой ложки с позиционером (арт. AANIPH4012T) V.1 / ВКЛ. 1 ВИНТ, И</t>
+  </si>
+  <si>
+    <t>47019опт Трансфер LM (копия оригинала) MegaGen AnyOne D=5.5 L=7 для открытой ложки с позиционером (арт. IP5507HT) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37032опт Трансфер LM (копия оригинала) MegaGen AnyOne D=4 L=12, слепочный, для открытой ложки с позиционером (арт. IP4012HT) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.</t>
+  </si>
+  <si>
+    <t>37001опт Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=16, слепочный, для открытой ложки с позиционером (арт. AANIPH4016) V.1 / ВКЛ. 1 ВИНТ, ИМ</t>
+  </si>
+  <si>
+    <t>47020опт Трансфер LM (копия оригинала) MegaGen AnyOne D=5.5 L=12 для открытой ложки с позиционером (арт. IP5512HT) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37131 Трансфер LM (собств. разр.) Nobel Active RP (4.5) D=5 L=14, слепочный, для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>37125опт Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=15, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ,</t>
+  </si>
+  <si>
+    <t>37028 Трансфер LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. GSPIS4511) V.1</t>
+  </si>
+  <si>
+    <t>37132 Трансфер LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.75 L=11 для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>37023 Трансфер LM (копия оригинала) Nobel Replace Select 4.3 D=4.3 L=9, слепочный, для открытой ложки с позиционером (арт. 33539) V.1</t>
   </si>
   <si>
     <t>47105V2MOопт Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Megagen/Neobiotech/Xive) / (отв. Osstem) D=4.8 L=10 для открытой ложки V.2 / ВКЛ.</t>
   </si>
   <si>
-    <t>47033 Трансфер LM (копия оригинала) Implantium Multi-Unit 4.5 D=4.5 L=9, слепочный, для открытой ложки без позиционера (арт. SPU45BL) V.1</t>
-  </si>
-  <si>
-    <t>37031 Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.1</t>
-  </si>
-  <si>
-    <t>37030уп Трансфер LM (копия оригинала) Implantium D=4.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU4515HL) V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>37000 Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=12, слепочный, для открытой ложки с позиционером (арт. AANIPH4012T) V.1</t>
-  </si>
-  <si>
-    <t>37030 Трансфер LM (копия оригинала) Implantium D=4.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU4515HL) V.1</t>
-  </si>
-  <si>
-    <t>370311опт Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.</t>
-  </si>
-  <si>
-    <t>37032опт Трансфер LM (копия оригинала) MegaGen AnyOne D=4 L=12, слепочный, для открытой ложки с позиционером (арт. IP4012HT) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.</t>
-  </si>
-  <si>
-    <t>37126 Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=4 L=11, слепочный, для открытой ложки с позиционером V.1</t>
-  </si>
-  <si>
-    <t>47105V2Dопт Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв.Dentium/Mis/Astra/Adin RS) D=4.8 L=10 для открытой ложки V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ</t>
-  </si>
-  <si>
-    <t>47077 Трансфер LM (копия оригинала) Implantium D=5.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU5515HL) V.1</t>
-  </si>
-  <si>
-    <t>47021опт Трансфер LM (копия оригинала) MegaGen AnyOne D=4 L=16 для открытой ложки с позиционером (арт. IP4016HT) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>37000уп Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=12 для открытой ложки с позиционером (арт. AANIPH4012T) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>37135 Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=11, слепочный, для открытой ложки с позиционером V.1</t>
-  </si>
-  <si>
-    <t>47047опт Трансфер LM (копия оригинала) Xive 4.5 D=4.5 L=3 для открытой ложки с позиционером (арт. 45-1655) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>47032 Трансфер LM (копия оригинала) Implantium Multi-Unit 5.5 D=5.5 L=9, слепочный, для открытой ложки без позиционера (арт. SPU55BL) V.1</t>
-  </si>
-  <si>
-    <t>37130 Трансфер LM (собств. разр.) Nobel Active NP (3.5) D=5 L=14, слепочный, для открытой ложки с позиционером V.1</t>
-  </si>
-  <si>
-    <t>47046опт Трансфер LM (копия оригинала) Xive 3.4 D=3.4 L=12.9 для открытой ложки с позиционером (арт. 45-1635) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>37001 Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=16, слепочный, для открытой ложки с позиционером (арт. AANIPH4016) V.1</t>
-  </si>
-  <si>
-    <t>37074 Трансфер LM (собств. разр.) Mis SP (3.75/4.2) D=5 L=11, слепочный, для открытой ложки с позиционером V.2</t>
-  </si>
-  <si>
-    <t>47020опт Трансфер LM (копия оригинала) MegaGen AnyOne D=5.5 L=12 для открытой ложки с позиционером (арт. IP5512HT) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>37001опт Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=16, слепочный, для открытой ложки с позиционером (арт. AANIPH4016) V.1 / ВКЛ. 1 ВИНТ, ИМ</t>
-  </si>
-  <si>
-    <t>47019опт Трансфер LM (копия оригинала) MegaGen AnyOne D=5.5 L=7 для открытой ложки с позиционером (арт. IP5507HT) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>37000опт Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=12, слепочный, для открытой ложки с позиционером (арт. AANIPH4012T) V.1 / ВКЛ. 1 ВИНТ, И</t>
-  </si>
-  <si>
-    <t>37028 Трансфер LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. GSPIS4511) V.1</t>
-  </si>
-  <si>
-    <t>47034опт Трансфер LM (копия оригинала) Implantium D=4 L=11 для закрытой ложки с позиционером (арт. DTF4011HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>37131 Трансфер LM (собств. разр.) Nobel Active RP (4.5) D=5 L=14, слепочный, для открытой ложки с позиционером V.1</t>
+    <t>37024 Трансфер LM (копия оригинала) Astra Tech 3.5/4.0 D=4.6 L=19, слепочный, для открытой ложки с позиционером (арт. 24948) V.1</t>
+  </si>
+  <si>
+    <t>47053опт Трансфер LM (копия оригинала) Implantium D=4 L=11 для открытой ложки с позиционером (арт. DPU4011HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>47078опт Трансфер LM (копия оригинала) Implantium D=6.5 L=15 для открытой ложки с позиционером (арт. DPU6515HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37033 Трансфер LM (копия оригинала) Ankylos X D=7 L=19.5, слепочный, для открытой ложки с позиционером (арт. 3104 7042) V.2</t>
+  </si>
+  <si>
+    <t>37127опт Трансфер LM (собств. разр.) Ankylos X D=4.5 L=14, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37075 Трансфер LM (копия оригинала) ICX Medentis D=4.5 L=4, слепочный, для открытой ложки с позиционером (арт. C-005-030001) V.1</t>
+  </si>
+  <si>
+    <t>470541опт Трансфер LM (копия оригинала) Implantium D=5.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU5511HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.</t>
+  </si>
+  <si>
+    <t>47036 Трансфер LM (копия оригинала) Implantium D=5.5 L=11 для закрытой ложки с позиционером (арт. DTF5511HL) V.1</t>
+  </si>
+  <si>
+    <t>47077опт Трансфер LM (копия оригинала) Implantium D=5.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU5515HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.Р</t>
+  </si>
+  <si>
+    <t>47078 Трансфер LM (копия оригинала) Implantium D=6.5 L=15 для открытой ложки с позиционером (арт. DPU6515HL) V.1</t>
+  </si>
+  <si>
+    <t>47035 Трансфер LM (копия оригинала) Implantium D=4.5 L=11 для закрытой ложки с позиционером (арт. DTF4511HL) V.1</t>
+  </si>
+  <si>
+    <t>37078опт Трансфер LM (копия оригинала) Straumann SynOcta RN (4.8) D=5.7 L=11.4, слепочный, для открытой ложки с позиционером (арт. 048.090) V.1 / ВКЛ.</t>
+  </si>
+  <si>
+    <t>37012 Трансфер LM (копия оригинала) Ankylos X D=7 L=14.5, слепочный, для открытой ложки с позиционером (арт. 3104 7040) V.2</t>
   </si>
   <si>
     <t>47035опт Трансфер LM (копия оригинала) Implantium D=4.5 L=11 для закрытой ложки с позиционером (арт. DTF4511HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
-    <t>37024опт Трансфер LM (копия оригинала) Astra Tech 3.5/4.0 L=19, слепочный, для открытой ложки с позиционером (арт. 24948) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/</t>
-  </si>
-  <si>
-    <t>37132 Трансфер LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.75 L=11 для открытой ложки с позиционером V.1</t>
-  </si>
-  <si>
-    <t>47095опт Трансфер LM (копия оригинала) Astra Tech 3.5/4.0 D=3.5 L=13.5 для закрытой ложки с позиционером (арт. 24960) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>47105V2Dуп Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв.Dentium/Mis/Astra/Adin RS) D=4.8 L=10 для открытой ложки V.2 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
     <t>47040опт Трансфер LM (копия оригинала) Implantium D=5.5 L=15 для закрытой ложки с позиционером (арт. DTF5515HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
-    <t>37023 Трансфер LM (копия оригинала) Nobel Replace Select 4.3 D=4.3 L=9, слепочный, для открытой ложки с позиционером (арт. 33539) V.1</t>
-  </si>
-  <si>
-    <t>37024 Трансфер LM (копия оригинала) Astra Tech 3.5/4.0 D=4.6 L=19, слепочный, для открытой ложки с позиционером (арт. 24948) V.1</t>
+    <t>37079опт Трансфер LM (копия оригинала) Implantium D=6.5 L=11 для открытой ложки с позиционером (арт. DPU6511HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37142уп Трансфер LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=6 L=30 для открытой ложки с позиционером (арт. 025.4205) V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>37007опт Трансфер LM (копия оригинала) Alpha Bio Internal L=14, слепочный, для открытой ложки с позиционером (арт. HLTO 5061) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ</t>
+  </si>
+  <si>
+    <t>47076уп Трансфер LM (копия оригинала) Implantium D=4 L=15 для открытой ложки с позиционером (арт. DPU4015HL) V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>47053уп Трансфер LM (копия оригинала) Implantium D=4 L=11 для открытой ложки с позиционером (арт. DPU4011HL) V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>37023уп Трансфер LM (копия оригинала) Nobel Replace Select 4.3 D=4.3 L=9, слепочный, для открытой ложки с позиционером (арт. 33539) V.1 / 1 ВИНТ, В БЛ</t>
+  </si>
+  <si>
+    <t>37128 Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=5 L=15, слепочный, для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>37126уп Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=4 L=11, слепочный, для открытой ложки с позиционером V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>37137опт Трансфер LM (копия оригинала) Astra Tech 3.5/4.0 D=4.6 L=14 для открытой ложки с позиционером (арт. 24947) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>47038опт Трансфер LM (копия оригинала) Implantium D=4 L=15 для закрытой ложки с позиционером (арт. DTF4015HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
-    <t>37033 Трансфер LM (копия оригинала) Ankylos X D=7 L=19.5, слепочный, для открытой ложки с позиционером (арт. 3104 7042) V.2</t>
-  </si>
-  <si>
-    <t>370721опт Трансфер LM (копия оригинала) Nobel Conical Connection RP (4.3) D=5 L=14 для открытой ложки с позиционером (арт. 36264) V.1 / ВКЛ. 1 ВИНТ, И</t>
-  </si>
-  <si>
-    <t>47036 Трансфер LM (копия оригинала) Implantium D=5.5 L=11 для закрытой ложки с позиционером (арт. DTF5511HL) V.1</t>
-  </si>
-  <si>
-    <t>47078 Трансфер LM (копия оригинала) Implantium D=6.5 L=15 для открытой ложки с позиционером (арт. DPU6515HL) V.1</t>
-  </si>
-  <si>
-    <t>37075 Трансфер LM (копия оригинала) ICX Medentis D=4.5 L=4, слепочный, для открытой ложки с позиционером (арт. C-005-030001) V.1</t>
-  </si>
-  <si>
-    <t>37136опт Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=15 для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>47035 Трансфер LM (копия оригинала) Implantium D=4.5 L=11 для закрытой ложки с позиционером (арт. DTF4511HL) V.1</t>
-  </si>
-  <si>
-    <t>37012 Трансфер LM (копия оригинала) Ankylos X D=7 L=14.5, слепочный, для открытой ложки с позиционером (арт. 3104 7040) V.2</t>
-  </si>
-  <si>
-    <t>37127опт Трансфер LM (собств. разр.) Ankylos X D=4.5 L=14, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>37126уп Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=4 L=11, слепочный, для открытой ложки с позиционером V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>47076уп Трансфер LM (копия оригинала) Implantium D=4 L=15 для открытой ложки с позиционером (арт. DPU4015HL) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>37128опт Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=5 L=15, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>37128 Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=5 L=15, слепочный, для открытой ложки с позиционером V.1</t>
-  </si>
-  <si>
-    <t>37023уп Трансфер LM (копия оригинала) Nobel Replace Select 4.3 D=4.3 L=9, слепочный, для открытой ложки с позиционером (арт. 33539) V.1 / 1 ВИНТ, В БЛ</t>
-  </si>
-  <si>
-    <t>47053уп Трансфер LM (копия оригинала) Implantium D=4 L=11 для открытой ложки с позиционером (арт. DPU4011HL) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>37141опт Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=6 L=15 для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>37072 Трансфер LM (копия оригинала) Nobel Conical Connection RP (4.3) D=5 L=14 для открытой ложки с позиционером (арт. 36264) V.1</t>
-  </si>
-  <si>
-    <t>47022 Трансфер LM (копия оригинала) MegaGen AnyOne D=4 L=12 для закрытой ложки с позиционером (арт. IT4012HHT) V.1</t>
-  </si>
-  <si>
     <t>37006уп Трансфер LM (копия оригинала) Alpha Bio Internal L=14, слепочный, для закрытой ложки с позиционером (арт. HLT 5060) V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
+    <t>37132опт Трансфер LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.75 L=11 для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37077опт Трансфер LM (копия оригинала) Straumann Bone Level NC (3.3) D=5.5 L=30 для открытой ложки с позиционером (арт. 025.2205) V.1 / ВКЛ. 1 ВИНТ, И</t>
+  </si>
+  <si>
+    <t>47036опт Трансфер LM (копия оригинала) Implantium D=5.5 L=11 для закрытой ложки с позиционером (арт. DTF5511HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37142 Трансфер LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=6 L=30 для открытой ложки с позиционером (арт. 025.4205) V.1</t>
+  </si>
+  <si>
     <t>37125 Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=15, слепочный, для открытой ложки с позиционером V.1</t>
   </si>
   <si>
-    <t>37142 Трансфер LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=6 L=30 для открытой ложки с позиционером (арт. 025.4205) V.1</t>
+    <t>37127 Трансфер LM (собств. разр.) Ankylos X D=4.5 L=14, слепочный, для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>47039опт Трансфер LM (копия оригинала) Implantium D=4.5 L=15 для закрытой ложки с позиционером (арт. DTF4515HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37129 Трансфер LM (собств. разр.) Ankylos X D=4.5 L=18, слепочный, для открытой ложки с позиционером V.1</t>
   </si>
 </sst>
 </file>
@@ -714,7 +747,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,7 +820,7 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15">
-        <v>1090</v>
+        <v>1064</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4">
@@ -795,7 +828,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>550</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -805,13 +838,13 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -821,13 +854,13 @@
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="6">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -837,15 +870,13 @@
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="6">
-        <v>50</v>
-      </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -855,13 +886,15 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="6">
+        <v>50</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="6">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -871,13 +904,13 @@
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -887,29 +920,29 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="33" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -919,13 +952,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17">
-        <v>19</v>
+        <v>317</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="6">
+        <v>300</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="6">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -935,12 +970,10 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17">
-        <v>317</v>
+        <v>17</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="6">
-        <v>300</v>
-      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="6">
         <v>17</v>
@@ -996,36 +1029,36 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="33" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="33" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1099,13 +1132,13 @@
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1115,13 +1148,13 @@
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1131,13 +1164,13 @@
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1147,13 +1180,13 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1163,13 +1196,13 @@
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1195,13 +1228,13 @@
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1211,13 +1244,13 @@
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1227,13 +1260,13 @@
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1259,15 +1292,13 @@
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E35" s="17"/>
-      <c r="F35" s="6">
-        <v>5</v>
-      </c>
+      <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1277,13 +1308,13 @@
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1293,13 +1324,13 @@
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1309,13 +1340,13 @@
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1325,13 +1356,13 @@
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1341,13 +1372,13 @@
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1357,13 +1388,15 @@
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E41" s="17"/>
-      <c r="F41" s="7"/>
+      <c r="F41" s="6">
+        <v>5</v>
+      </c>
       <c r="G41" s="7"/>
       <c r="H41" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1599,13 +1632,13 @@
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
       <c r="D56" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1615,13 +1648,13 @@
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1711,13 +1744,13 @@
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" s="17"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1727,13 +1760,13 @@
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" s="17"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1743,13 +1776,13 @@
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
       <c r="D65" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" s="17"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1759,13 +1792,13 @@
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1775,37 +1808,235 @@
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
       <c r="D67" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="17"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="18">
-        <v>1090</v>
-      </c>
-      <c r="E68" s="18"/>
-      <c r="F68" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="17">
+        <v>1</v>
+      </c>
+      <c r="E68" s="17"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="17">
+        <v>1</v>
+      </c>
+      <c r="E69" s="17"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="17">
+        <v>1</v>
+      </c>
+      <c r="E70" s="17"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="17">
+        <v>1</v>
+      </c>
+      <c r="E71" s="17"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="17">
+        <v>1</v>
+      </c>
+      <c r="E72" s="17"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="17">
+        <v>1</v>
+      </c>
+      <c r="E73" s="17"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="17">
+        <v>1</v>
+      </c>
+      <c r="E74" s="17"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="17">
+        <v>1</v>
+      </c>
+      <c r="E75" s="17"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="17">
+        <v>1</v>
+      </c>
+      <c r="E76" s="17"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="17">
+        <v>1</v>
+      </c>
+      <c r="E77" s="17"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="17">
+        <v>1</v>
+      </c>
+      <c r="E78" s="17"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="18">
+        <v>1064</v>
+      </c>
+      <c r="E79" s="18"/>
+      <c r="F79" s="8">
         <v>540</v>
       </c>
-      <c r="G68" s="9"/>
-      <c r="H68" s="8">
-        <v>550</v>
+      <c r="G79" s="9"/>
+      <c r="H79" s="8">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="131">
+  <mergeCells count="153">
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="D77:E77"/>
     <mergeCell ref="A68:C68"/>
     <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:E72"/>
     <mergeCell ref="A63:C63"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="A64:C64"/>

--- a/input_data/transfers/transfers_unsh.xlsx
+++ b/input_data/transfers/transfers_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_07/transfers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_14/transfers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED0AA83-1E3E-714A-98EE-5760795C9A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D252F6-B7AB-EB48-91F4-38B62265721A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>Отбор:</t>
   </si>
@@ -59,217 +59,175 @@
     <t>47105 Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Ankylos) / (отв. Megagen/Neobiotech/Xive) / (отв. Nobel) / (отв. Osstem) / (отв.Dentium/M</t>
   </si>
   <si>
+    <t>370311опт Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.</t>
+  </si>
+  <si>
     <t>37124 Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=11, слепочный, для открытой ложки с позиционером V.1</t>
   </si>
   <si>
+    <t>37031 Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.2</t>
+  </si>
+  <si>
     <t>47033 Трансфер LM (копия оригинала) Implantium Multi-Unit 4.5 D=4.5 L=9, слепочный, для открытой ложки без позиционера (арт. SPU45BL) V.1</t>
   </si>
   <si>
-    <t>37031 Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.2</t>
-  </si>
-  <si>
-    <t>47076опт Трансфер LM (копия оригинала) Implantium D=4 L=15 для открытой ложки с позиционером (арт. DPU4015HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>37030 Трансфер LM (копия оригинала) Implantium D=4.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU4515HL) V.1</t>
   </si>
   <si>
     <t>37031 Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.1</t>
   </si>
   <si>
+    <t>37000 Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=12, слепочный, для открытой ложки с позиционером (арт. AANIPH4012T) V.1</t>
+  </si>
+  <si>
+    <t>37126 Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=4 L=11, слепочный, для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>47077 Трансфер LM (копия оригинала) Implantium D=5.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU5515HL) V.1</t>
+  </si>
+  <si>
+    <t>37135 Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=11, слепочный, для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>37126уп Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=4 L=11, слепочный, для открытой ложки с позиционером V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>37000уп Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=12 для открытой ложки с позиционером (арт. AANIPH4012T) V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>37030уп Трансфер LM (копия оригинала) Implantium D=4.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU4515HL) V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>47105V2 Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit D=4.8 L=10 для открытой ложки V.2</t>
+  </si>
+  <si>
+    <t>47040опт Трансфер LM (копия оригинала) Implantium D=5.5 L=15 для закрытой ложки с позиционером (арт. DTF5515HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37136уп Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=15 для открытой ложки с позиционером V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>47032 Трансфер LM (копия оригинала) Implantium Multi-Unit 5.5 D=5.5 L=9, слепочный, для открытой ложки без позиционера (арт. SPU55BL) V.1</t>
+  </si>
+  <si>
+    <t>47047опт Трансфер LM (копия оригинала) Xive 4.5 D=4.5 L=3 для открытой ложки с позиционером (арт. 45-1655) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>47105V2MOуп Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Megagen/Neobiotech/Xive) / (отв. Osstem) D=4.8 L=10 для открытой ложки V.2 / 1 ВИНТ</t>
+  </si>
+  <si>
+    <t>47046опт Трансфер LM (копия оригинала) Xive 3.4 D=3.4 L=12.9 для открытой ложки с позиционером (арт. 45-1635) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37130 Трансфер LM (собств. разр.) Nobel Active NP (3.5) D=5 L=14, слепочный, для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>47034опт Трансфер LM (копия оригинала) Implantium D=4 L=11 для закрытой ложки с позиционером (арт. DTF4011HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37074 Трансфер LM (собств. разр.) Mis SP (3.75/4.2) D=5 L=11, слепочный, для открытой ложки с позиционером V.2</t>
+  </si>
+  <si>
+    <t>37001 Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=16, слепочный, для открытой ложки с позиционером (арт. AANIPH4016) V.1</t>
+  </si>
+  <si>
+    <t>37135уп Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=11 для открытой ложки с позиционером V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>37030опт Трансфер LM (копия оригинала) Implantium D=4.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU4515HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.Р</t>
+  </si>
+  <si>
+    <t>37028 Трансфер LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. GSPIS4511) V.1</t>
+  </si>
+  <si>
+    <t>47033опт Трансфер LM (копия оригинала) Implantium Multi-Unit 4.5 D=4.5 L=9, слепочный, для открытой ложки без позиционера (арт. SPU45BL) V.1 / ВКЛ. 1</t>
+  </si>
+  <si>
+    <t>37131 Трансфер LM (собств. разр.) Nobel Active RP (4.5) D=5 L=14, слепочный, для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>37134опт Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=5 L=15 для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>47039опт Трансфер LM (копия оригинала) Implantium D=4.5 L=15 для закрытой ложки с позиционером (арт. DTF4515HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37079опт Трансфер LM (копия оригинала) Implantium D=6.5 L=11 для открытой ложки с позиционером (арт. DPU6511HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37023 Трансфер LM (копия оригинала) Nobel Replace Select 4.3 D=4.3 L=9, слепочный, для открытой ложки с позиционером (арт. 33539) V.1</t>
+  </si>
+  <si>
+    <t>37132 Трансфер LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.75 L=11 для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
     <t>47105V2Dуп Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв.Dentium/Mis/MisC1/Astra/Adin RS) D=4.8 L=10 для открытой ложки V.2 / 1 ВИНТ, УПАК</t>
   </si>
   <si>
-    <t>37000 Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=12, слепочный, для открытой ложки с позиционером (арт. AANIPH4012T) V.1</t>
-  </si>
-  <si>
-    <t>370311опт Трансфер LM (копия оригинала) Implantium D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU4511HL) V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.</t>
-  </si>
-  <si>
-    <t>37030 Трансфер LM (копия оригинала) Implantium D=4.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU4515HL) V.1</t>
-  </si>
-  <si>
-    <t>47105V2MOуп Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Megagen/Neobiotech/Xive) / (отв. Osstem) D=4.8 L=10 для открытой ложки V.2 / 1 ВИНТ</t>
-  </si>
-  <si>
-    <t>37126 Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=4 L=11, слепочный, для открытой ложки с позиционером V.1</t>
-  </si>
-  <si>
-    <t>47105V2Dопт Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв.Dentium/Mis/MisC1/Astra/Adin RS) D=4.8 L=10 для открытой ложки V.2 / ВКЛ. 1 ВИНТ, ИМ</t>
-  </si>
-  <si>
-    <t>47077 Трансфер LM (копия оригинала) Implantium D=5.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU5515HL) V.1</t>
-  </si>
-  <si>
-    <t>47034опт Трансфер LM (копия оригинала) Implantium D=4 L=11 для закрытой ложки с позиционером (арт. DTF4011HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>47105V2 Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit D=4.8 L=10 для открытой ложки V.2</t>
-  </si>
-  <si>
-    <t>37030уп Трансфер LM (копия оригинала) Implantium D=4.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU4515HL) V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>37000уп Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=12 для открытой ложки с позиционером (арт. AANIPH4012T) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>37135 Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 L=11, слепочный, для открытой ложки с позиционером V.1</t>
-  </si>
-  <si>
-    <t>37030опт Трансфер LM (копия оригинала) Implantium D=4.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU4515HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.Р</t>
-  </si>
-  <si>
-    <t>37021опт Трансфер LM (копия оригинала) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) D=3.6 L=14 для открытой ложки с позиционером (арт. 362</t>
-  </si>
-  <si>
-    <t>47032 Трансфер LM (копия оригинала) Implantium Multi-Unit 5.5 D=5.5 L=9, слепочный, для открытой ложки без позиционера (арт. SPU55BL) V.1</t>
-  </si>
-  <si>
-    <t>47047опт Трансфер LM (копия оригинала) Xive 4.5 D=4.5 L=3 для открытой ложки с позиционером (арт. 45-1655) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>37001 Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=16, слепочный, для открытой ложки с позиционером (арт. AANIPH4016) V.1</t>
-  </si>
-  <si>
-    <t>37074 Трансфер LM (собств. разр.) Mis SP (3.75/4.2) D=5 L=11, слепочный, для открытой ложки с позиционером V.2</t>
-  </si>
-  <si>
-    <t>37130 Трансфер LM (собств. разр.) Nobel Active NP (3.5) D=5 L=14, слепочный, для открытой ложки с позиционером V.1</t>
-  </si>
-  <si>
-    <t>47046опт Трансфер LM (копия оригинала) Xive 3.4 D=3.4 L=12.9 для открытой ложки с позиционером (арт. 45-1635) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>37024 Трансфер LM (копия оригинала) Astra Tech 3.5/4.0 D=4.6 L=19, слепочный, для открытой ложки с позиционером (арт. 24948) V.1</t>
+  </si>
+  <si>
+    <t>37126опт Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=4 L=11, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>37033 Трансфер LM (копия оригинала) Ankylos X D=7 L=19.5, слепочный, для открытой ложки с позиционером (арт. 3104 7042) V.2</t>
+  </si>
+  <si>
+    <t>37012 Трансфер LM (копия оригинала) Ankylos X D=7 L=14.5, слепочный, для открытой ложки с позиционером (арт. 3104 7040) V.2</t>
+  </si>
+  <si>
+    <t>37007уп Трансфер LM (копия оригинала) Alpha Bio Internal L=14, слепочный, для открытой ложки с позиционером (арт. HLTO 5061) V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>47078 Трансфер LM (копия оригинала) Implantium D=6.5 L=15 для открытой ложки с позиционером (арт. DPU6515HL) V.1</t>
+  </si>
+  <si>
+    <t>37078опт Трансфер LM (копия оригинала) Straumann SynOcta RN (4.8) D=5.7 L=11.4, слепочный, для открытой ложки с позиционером (арт. 048.090) V.1 / ВКЛ.</t>
+  </si>
+  <si>
+    <t>47036 Трансфер LM (копия оригинала) Implantium D=5.5 L=11 для закрытой ложки с позиционером (арт. DTF5511HL) V.1</t>
+  </si>
+  <si>
+    <t>47100уп Трансфер LM (копия оригинала) Alpha Bio Internal D=5.5 L=8 для открытой ложки с позиционером (арт. 5171) V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>37075 Трансфер LM (копия оригинала) ICX Medentis D=4.5 L=4, слепочный, для открытой ложки с позиционером (арт. C-005-030001) V.1</t>
+  </si>
+  <si>
+    <t>37128опт Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=5 L=15, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>47035 Трансфер LM (копия оригинала) Implantium D=4.5 L=11 для закрытой ложки с позиционером (арт. DTF4511HL) V.1</t>
+  </si>
+  <si>
+    <t>47054 Трансфер LM (копия оригинала) Implantium D=5.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU5511HL) V.1</t>
+  </si>
+  <si>
+    <t>47053уп Трансфер LM (копия оригинала) Implantium D=4 L=11 для открытой ложки с позиционером (арт. DPU4011HL) V.1 / 1 ВИНТ, УПАК</t>
+  </si>
+  <si>
+    <t>37128 Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=5 L=15, слепочный, для открытой ложки с позиционером V.1</t>
   </si>
   <si>
     <t>37000опт Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=12, слепочный, для открытой ложки с позиционером (арт. AANIPH4012T) V.1 / ВКЛ. 1 ВИНТ, И</t>
   </si>
   <si>
-    <t>47019опт Трансфер LM (копия оригинала) MegaGen AnyOne D=5.5 L=7 для открытой ложки с позиционером (арт. IP5507HT) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>37032опт Трансфер LM (копия оригинала) MegaGen AnyOne D=4 L=12, слепочный, для открытой ложки с позиционером (арт. IP4012HT) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.</t>
-  </si>
-  <si>
-    <t>37001опт Трансфер LM (копия оригинала) MegaGen AnyRidge D=4 L=16, слепочный, для открытой ложки с позиционером (арт. AANIPH4016) V.1 / ВКЛ. 1 ВИНТ, ИМ</t>
-  </si>
-  <si>
-    <t>47020опт Трансфер LM (копия оригинала) MegaGen AnyOne D=5.5 L=12 для открытой ложки с позиционером (арт. IP5512HT) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>37131 Трансфер LM (собств. разр.) Nobel Active RP (4.5) D=5 L=14, слепочный, для открытой ложки с позиционером V.1</t>
-  </si>
-  <si>
-    <t>37125опт Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=15, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ,</t>
-  </si>
-  <si>
-    <t>37028 Трансфер LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=11, слепочный, для открытой ложки с позиционером (арт. GSPIS4511) V.1</t>
-  </si>
-  <si>
-    <t>37132 Трансфер LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.75 L=11 для открытой ложки с позиционером V.1</t>
-  </si>
-  <si>
-    <t>37023 Трансфер LM (копия оригинала) Nobel Replace Select 4.3 D=4.3 L=9, слепочный, для открытой ложки с позиционером (арт. 33539) V.1</t>
-  </si>
-  <si>
-    <t>47105V2MOопт Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Megagen/Neobiotech/Xive) / (отв. Osstem) D=4.8 L=10 для открытой ложки V.2 / ВКЛ.</t>
-  </si>
-  <si>
-    <t>37024 Трансфер LM (копия оригинала) Astra Tech 3.5/4.0 D=4.6 L=19, слепочный, для открытой ложки с позиционером (арт. 24948) V.1</t>
-  </si>
-  <si>
-    <t>47053опт Трансфер LM (копия оригинала) Implantium D=4 L=11 для открытой ложки с позиционером (арт. DPU4011HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>47078опт Трансфер LM (копия оригинала) Implantium D=6.5 L=15 для открытой ложки с позиционером (арт. DPU6515HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>37033 Трансфер LM (копия оригинала) Ankylos X D=7 L=19.5, слепочный, для открытой ложки с позиционером (арт. 3104 7042) V.2</t>
-  </si>
-  <si>
-    <t>37127опт Трансфер LM (собств. разр.) Ankylos X D=4.5 L=14, слепочный, для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>37075 Трансфер LM (копия оригинала) ICX Medentis D=4.5 L=4, слепочный, для открытой ложки с позиционером (арт. C-005-030001) V.1</t>
-  </si>
-  <si>
-    <t>470541опт Трансфер LM (копия оригинала) Implantium D=5.5 L=11, слепочный, для открытой ложки с позиционером (арт. DPU5511HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.</t>
-  </si>
-  <si>
-    <t>47036 Трансфер LM (копия оригинала) Implantium D=5.5 L=11 для закрытой ложки с позиционером (арт. DTF5511HL) V.1</t>
-  </si>
-  <si>
-    <t>47077опт Трансфер LM (копия оригинала) Implantium D=5.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU5515HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.Р</t>
-  </si>
-  <si>
-    <t>47078 Трансфер LM (копия оригинала) Implantium D=6.5 L=15 для открытой ложки с позиционером (арт. DPU6515HL) V.1</t>
-  </si>
-  <si>
-    <t>47035 Трансфер LM (копия оригинала) Implantium D=4.5 L=11 для закрытой ложки с позиционером (арт. DTF4511HL) V.1</t>
-  </si>
-  <si>
-    <t>37078опт Трансфер LM (копия оригинала) Straumann SynOcta RN (4.8) D=5.7 L=11.4, слепочный, для открытой ложки с позиционером (арт. 048.090) V.1 / ВКЛ.</t>
-  </si>
-  <si>
-    <t>37012 Трансфер LM (копия оригинала) Ankylos X D=7 L=14.5, слепочный, для открытой ложки с позиционером (арт. 3104 7040) V.2</t>
-  </si>
-  <si>
-    <t>47035опт Трансфер LM (копия оригинала) Implantium D=4.5 L=11 для закрытой ложки с позиционером (арт. DTF4511HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>47040опт Трансфер LM (копия оригинала) Implantium D=5.5 L=15 для закрытой ложки с позиционером (арт. DTF5515HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>37079опт Трансфер LM (копия оригинала) Implantium D=6.5 L=11 для открытой ложки с позиционером (арт. DPU6511HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>37142уп Трансфер LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=6 L=30 для открытой ложки с позиционером (арт. 025.4205) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>37007опт Трансфер LM (копия оригинала) Alpha Bio Internal L=14, слепочный, для открытой ложки с позиционером (арт. HLTO 5061) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ</t>
+    <t>37023уп Трансфер LM (копия оригинала) Nobel Replace Select 4.3 D=4.3 L=9, слепочный, для открытой ложки с позиционером (арт. 33539) V.1 / 1 ВИНТ, В БЛ</t>
+  </si>
+  <si>
+    <t>47053 Трансфер LM (копия оригинала) Implantium D=4 L=11 для открытой ложки с позиционером (арт. DPU4011HL) V.1</t>
   </si>
   <si>
     <t>47076уп Трансфер LM (копия оригинала) Implantium D=4 L=15 для открытой ложки с позиционером (арт. DPU4015HL) V.1 / 1 ВИНТ, УПАК</t>
   </si>
   <si>
-    <t>47053уп Трансфер LM (копия оригинала) Implantium D=4 L=11 для открытой ложки с позиционером (арт. DPU4011HL) V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>37023уп Трансфер LM (копия оригинала) Nobel Replace Select 4.3 D=4.3 L=9, слепочный, для открытой ложки с позиционером (арт. 33539) V.1 / 1 ВИНТ, В БЛ</t>
-  </si>
-  <si>
-    <t>37128 Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=5 L=15, слепочный, для открытой ложки с позиционером V.1</t>
-  </si>
-  <si>
-    <t>37126уп Трансфер LM (собств. разр.) Osstem Implant Mini (3.5) D=4 L=11, слепочный, для открытой ложки с позиционером V.1 / 1 ВИНТ, УПАК</t>
-  </si>
-  <si>
-    <t>37137опт Трансфер LM (копия оригинала) Astra Tech 3.5/4.0 D=4.6 L=14 для открытой ложки с позиционером (арт. 24947) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>47038опт Трансфер LM (копия оригинала) Implantium D=4 L=15 для закрытой ложки с позиционером (арт. DTF4015HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>37125 Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=15, слепочный, для открытой ложки с позиционером V.1</t>
+  </si>
+  <si>
+    <t>37142 Трансфер LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=6 L=30 для открытой ложки с позиционером (арт. 025.4205) V.1</t>
   </si>
   <si>
     <t>37006уп Трансфер LM (копия оригинала) Alpha Bio Internal L=14, слепочный, для закрытой ложки с позиционером (арт. HLT 5060) V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>37132опт Трансфер LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.75 L=11 для открытой ложки с позиционером V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>37077опт Трансфер LM (копия оригинала) Straumann Bone Level NC (3.3) D=5.5 L=30 для открытой ложки с позиционером (арт. 025.2205) V.1 / ВКЛ. 1 ВИНТ, И</t>
-  </si>
-  <si>
-    <t>47036опт Трансфер LM (копия оригинала) Implantium D=5.5 L=11 для закрытой ложки с позиционером (арт. DTF5511HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>37142 Трансфер LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=6 L=30 для открытой ложки с позиционером (арт. 025.4205) V.1</t>
-  </si>
-  <si>
-    <t>37125 Трансфер LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 L=15, слепочный, для открытой ложки с позиционером V.1</t>
-  </si>
-  <si>
-    <t>37127 Трансфер LM (собств. разр.) Ankylos X D=4.5 L=14, слепочный, для открытой ложки с позиционером V.1</t>
-  </si>
-  <si>
-    <t>47039опт Трансфер LM (копия оригинала) Implantium D=4.5 L=15 для закрытой ложки с позиционером (арт. DTF4515HL) V.1 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>37129 Трансфер LM (собств. разр.) Ankylos X D=4.5 L=18, слепочный, для открытой ложки с позиционером V.1</t>
   </si>
 </sst>
 </file>
@@ -747,7 +705,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -820,7 +778,7 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15">
-        <v>1064</v>
+        <v>1018</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4">
@@ -828,7 +786,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>524</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -854,13 +812,13 @@
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="6">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -870,13 +828,13 @@
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -886,7 +844,7 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="6">
@@ -894,7 +852,7 @@
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="6">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -904,13 +862,13 @@
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -920,29 +878,31 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="6">
+        <v>50</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="33" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -970,13 +930,13 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="6">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -986,15 +946,13 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="6">
-        <v>50</v>
-      </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1004,13 +962,13 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1020,29 +978,29 @@
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="33" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1052,13 +1010,13 @@
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1068,13 +1026,13 @@
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1116,13 +1074,13 @@
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1132,13 +1090,13 @@
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1148,13 +1106,13 @@
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1164,13 +1122,13 @@
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1180,13 +1138,13 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1196,13 +1154,13 @@
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1260,13 +1218,13 @@
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1276,13 +1234,15 @@
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E34" s="17"/>
-      <c r="F34" s="7"/>
+      <c r="F34" s="6">
+        <v>5</v>
+      </c>
       <c r="G34" s="7"/>
       <c r="H34" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1292,13 +1252,13 @@
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1308,13 +1268,13 @@
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1324,13 +1284,13 @@
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1340,13 +1300,13 @@
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1372,13 +1332,13 @@
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1388,18 +1348,16 @@
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E41" s="17"/>
-      <c r="F41" s="6">
-        <v>5</v>
-      </c>
+      <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="33" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
         <v>45</v>
       </c>
@@ -1422,10 +1380,12 @@
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="E43" s="17"/>
-      <c r="F43" s="7"/>
+      <c r="F43" s="6">
+        <v>135</v>
+      </c>
       <c r="G43" s="7"/>
       <c r="H43" s="6">
         <v>4</v>
@@ -1438,13 +1398,13 @@
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1454,15 +1414,13 @@
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="E45" s="17"/>
-      <c r="F45" s="6">
-        <v>135</v>
-      </c>
+      <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1472,13 +1430,13 @@
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
       <c r="D46" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1616,13 +1574,13 @@
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
       <c r="D55" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1632,13 +1590,13 @@
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
       <c r="D56" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1648,13 +1606,13 @@
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1728,13 +1686,13 @@
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" s="17"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1744,13 +1702,13 @@
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" s="17"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1760,293 +1718,41 @@
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" s="17"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="17">
-        <v>2</v>
-      </c>
-      <c r="E65" s="17"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="17">
-        <v>2</v>
-      </c>
-      <c r="E66" s="17"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="17">
-        <v>2</v>
-      </c>
-      <c r="E67" s="17"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="17">
         <v>1</v>
       </c>
-      <c r="E68" s="17"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="17">
-        <v>1</v>
-      </c>
-      <c r="E69" s="17"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="17">
-        <v>1</v>
-      </c>
-      <c r="E70" s="17"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="17">
-        <v>1</v>
-      </c>
-      <c r="E71" s="17"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="17">
-        <v>1</v>
-      </c>
-      <c r="E72" s="17"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="17">
-        <v>1</v>
-      </c>
-      <c r="E73" s="17"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="17">
-        <v>1</v>
-      </c>
-      <c r="E74" s="17"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="17">
-        <v>1</v>
-      </c>
-      <c r="E75" s="17"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="17">
-        <v>1</v>
-      </c>
-      <c r="E76" s="17"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="17">
-        <v>1</v>
-      </c>
-      <c r="E77" s="17"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="17">
-        <v>1</v>
-      </c>
-      <c r="E78" s="17"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="18">
-        <v>1064</v>
-      </c>
-      <c r="E79" s="18"/>
-      <c r="F79" s="8">
+    </row>
+    <row r="65" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="18">
+        <v>1018</v>
+      </c>
+      <c r="E65" s="18"/>
+      <c r="F65" s="8">
         <v>540</v>
       </c>
-      <c r="G79" s="9"/>
-      <c r="H79" s="8">
-        <v>524</v>
+      <c r="G65" s="9"/>
+      <c r="H65" s="8">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="153">
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:E72"/>
+  <mergeCells count="125">
     <mergeCell ref="A63:C63"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="A64:C64"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="D65:E65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="D67:E67"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="A59:C59"/>
